--- a/raw_data/2_remove/RemovedFOS.xlsx
+++ b/raw_data/2_remove/RemovedFOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,6 +66,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,9 +458,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2776672683</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>549605437</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>food security</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -401,9 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>549605437</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>2775868463</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>poverty threshold</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -412,9 +488,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2778452349</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>2776672683</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>poverty trap</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -423,9 +503,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2775868463</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>2778452349</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>rural poverty</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -434,9 +518,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2780015235</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>149923435</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>demography</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -445,9 +533,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2777735972</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>83854009</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>environmental design</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -456,9 +548,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198394728</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>179454799</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ethnography</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -467,9 +563,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>149923435</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>2549261</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ethnology</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -478,9 +578,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2549261</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>15708023</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>humanities</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -489,9 +593,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179454799</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>2917558</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ligne</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -500,9 +608,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2917558</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>2780015235</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>microsimulation</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -511,9 +623,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15708023</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>2777735972</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>platoon</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -522,9 +638,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83854009</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>198394728</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vibration</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -535,7 +655,11 @@
       <c r="B15" t="n">
         <v>25022447</v>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>coupled model intercomparison project</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -544,9 +668,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>197248824</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>39077098</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>biosurvey</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -557,7 +685,11 @@
       <c r="B17" t="n">
         <v>88160329</v>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>estuary</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -566,9 +698,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39077098</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>2777590139</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>live food</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -577,9 +713,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2777590139</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>68874143</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>mangrove</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -588,9 +728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>152382732</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>197248824</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>seawater</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -599,9 +743,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68874143</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>152382732</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>shore</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -612,7 +760,11 @@
       <c r="B22" t="n">
         <v>130217890</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>biodiversity</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -623,7 +775,11 @@
       <c r="B23" t="n">
         <v>185933670</v>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>habitat</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -634,7 +790,11 @@
       <c r="B24" t="n">
         <v>2779485152</v>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>convention on biological diversity</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -645,7 +805,11 @@
       <c r="B25" t="n">
         <v>91770344</v>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>overgrazing</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -654,9 +818,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2781040256</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>2780554537</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>audiometry</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -665,9 +833,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>83100098</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>121608353</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>cancer</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -676,9 +848,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71924100</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>111684460</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>complement system</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -687,9 +863,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>166936260</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>123688308</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>correction attenuation</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -698,9 +878,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2781145028</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+        <v>145417883</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>diffuse optical imaging</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -709,9 +893,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>159110408</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
+        <v>2779134260</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>disease</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -720,9 +908,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82789193</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
+        <v>2910860471</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>every three months</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -731,9 +923,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>112098571</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
+        <v>2777365067</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>high intensity focused ultrasound</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -742,9 +938,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2777365067</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
+        <v>2780263730</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>horizontal transmission</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -755,7 +955,11 @@
       <c r="B35" t="n">
         <v>203014093</v>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>immunology</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -764,9 +968,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>199529486</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+        <v>177713679</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>intensive care medicine</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -775,9 +983,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177713679</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
+        <v>71924100</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>medicine</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -786,9 +998,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2776471321</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
+        <v>67649825</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>microscope</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -797,9 +1013,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>145417883</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+        <v>147080431</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>microscopy</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -808,9 +1028,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2777413408</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>83100098</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ns2 3 protease</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -819,9 +1043,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>121608353</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
+        <v>159110408</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>nursing</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -830,9 +1058,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>67649825</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
+        <v>2777413408</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>optical tomography</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -841,9 +1073,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>141071460</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
+        <v>142724271</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>pathology</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -852,9 +1088,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>159047783</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
+        <v>2776471321</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>peptide library</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -863,9 +1103,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>205545832</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>98274493</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>pharmacology</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -874,9 +1118,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2780554537</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
+        <v>1862650</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>physical therapy</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -885,9 +1133,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>111684460</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
+        <v>126838900</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>radiology</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -896,9 +1148,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>142724271</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>82789193</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>relative risk</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -907,9 +1163,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>147080431</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
+        <v>2781040256</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>retinal degeneration</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -918,9 +1178,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2780263730</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
+        <v>199529486</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>solid lipid nanoparticle</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -929,9 +1193,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2779134260</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
+        <v>166936260</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>super resolution microscopy</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -940,9 +1208,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>126838900</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
+        <v>112098571</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>superluminescent diode</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -951,9 +1223,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>123688308</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
+        <v>141071460</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>surgery</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -962,9 +1238,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2910860471</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
+        <v>2781145028</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>tobacco industry</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -973,9 +1253,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1862650</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
+        <v>159047783</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>virology</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -984,9 +1268,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>98274493</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
+        <v>205545832</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>young adult</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -995,9 +1283,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2780732545</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>507981020</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>agricultural education</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1006,9 +1298,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8077954</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
+        <v>134290984</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>cognitive skill</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1017,9 +1313,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2779063172</v>
-      </c>
-      <c r="C59" t="inlineStr"/>
+        <v>197676734</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>developmentally appropriate practice</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1028,9 +1328,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>134290984</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
+        <v>2779063172</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>family child care</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1041,7 +1345,11 @@
       <c r="B61" t="n">
         <v>154482161</v>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>mainstreaming</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1050,9 +1358,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2777603413</v>
-      </c>
-      <c r="C62" t="inlineStr"/>
+        <v>8077954</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>miscue analysis</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1061,9 +1373,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>165364887</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
+        <v>542530943</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>multiculturalism</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1072,9 +1388,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>507981020</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
+        <v>2777603413</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>phonics</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1083,9 +1403,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>197676734</v>
-      </c>
-      <c r="C65" t="inlineStr"/>
+        <v>2780732545</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>response to intervention</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1094,9 +1418,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>542530943</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
+        <v>165364887</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>whole language</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1107,7 +1435,11 @@
       <c r="B67" t="n">
         <v>2776430950</v>
       </c>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ancillary relief</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1118,7 +1450,11 @@
       <c r="B68" t="n">
         <v>2775850206</v>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>conflict tactics scale</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1127,9 +1463,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>15098985</v>
-      </c>
-      <c r="C69" t="inlineStr"/>
+        <v>188287460</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>chemical oxygen demand</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1140,7 +1480,11 @@
       <c r="B70" t="n">
         <v>78302586</v>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>modflow</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1149,9 +1493,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>188287460</v>
-      </c>
-      <c r="C71" t="inlineStr"/>
+        <v>15098985</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>permafrost</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1160,9 +1508,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>126172416</v>
-      </c>
-      <c r="C72" t="inlineStr"/>
+        <v>86714428</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>atmospheric methane</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1171,9 +1523,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2779895041</v>
-      </c>
-      <c r="C73" t="inlineStr"/>
+        <v>37415627</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>capacity factor</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1182,9 +1538,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>113740612</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
+        <v>37965861</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>carbon credit</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1193,9 +1553,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2780331013</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
+        <v>2780936489</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>carbon footprint</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1204,9 +1568,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2778330180</v>
-      </c>
-      <c r="C76" t="inlineStr"/>
+        <v>2780331013</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>carbon lock in</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1215,9 +1583,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>509746633</v>
-      </c>
-      <c r="C77" t="inlineStr"/>
+        <v>126172416</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>carbon neutrality</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1226,9 +1598,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>37415627</v>
-      </c>
-      <c r="C78" t="inlineStr"/>
+        <v>83227832</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>carbon offset</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1237,9 +1613,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>188818383</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
+        <v>2779200991</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>carbon price</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1248,9 +1628,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2778675665</v>
-      </c>
-      <c r="C80" t="inlineStr"/>
+        <v>2779877863</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>carbon project</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1259,9 +1643,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2776058518</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
+        <v>509746633</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>climate change mitigation</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1272,7 +1660,11 @@
       <c r="B82" t="n">
         <v>2777586272</v>
       </c>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>copenhagen accord</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1281,9 +1673,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2776740001</v>
-      </c>
-      <c r="C83" t="inlineStr"/>
+        <v>188818383</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>fugitive emissions</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1292,9 +1688,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2778539042</v>
-      </c>
-      <c r="C84" t="inlineStr"/>
+        <v>137851953</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>greenhouse effect</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1303,9 +1703,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>37965861</v>
-      </c>
-      <c r="C85" t="inlineStr"/>
+        <v>2776782565</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>greenhouse gas accounting</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1314,9 +1718,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2776782565</v>
-      </c>
-      <c r="C86" t="inlineStr"/>
+        <v>2778675665</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>islanding</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1325,9 +1733,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2779877863</v>
-      </c>
-      <c r="C87" t="inlineStr"/>
+        <v>2779895041</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>land footprint</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1336,9 +1748,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2780936489</v>
-      </c>
-      <c r="C88" t="inlineStr"/>
+        <v>113740612</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>natural gas field</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1349,7 +1765,11 @@
       <c r="B89" t="n">
         <v>2781249646</v>
       </c>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>parabolic trough</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1358,9 +1778,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>137851953</v>
-      </c>
-      <c r="C90" t="inlineStr"/>
+        <v>2778330180</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>pitch control</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1369,9 +1793,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>83227832</v>
-      </c>
-      <c r="C91" t="inlineStr"/>
+        <v>2776740001</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>project independence</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1380,20 +1808,28 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>86714428</v>
-      </c>
-      <c r="C92" t="inlineStr"/>
+        <v>2776058518</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>solar still</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SDG_8</t>
+          <t>SDG_7</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2778556080</v>
-      </c>
-      <c r="C93" t="inlineStr"/>
+        <v>2778539042</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>united nations framework convention on climate change</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1402,9 +1838,28 @@
         </is>
       </c>
       <c r="B94" t="n">
+        <v>2778556080</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>green growth</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SDG_8</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
         <v>2779783368</v>
       </c>
-      <c r="C94" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>marriage market</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/raw_data/2_remove/RemovedFOS.xlsx
+++ b/raw_data/2_remove/RemovedFOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,74 +66,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/raw_data/2_remove/RemovedFOS.xlsx
+++ b/raw_data/2_remove/RemovedFOS.xlsx
@@ -390,13 +390,9 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549605437</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>food security</t>
-        </is>
-      </c>
+        <v>2776672683</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -405,13 +401,9 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2775868463</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>poverty threshold</t>
-        </is>
-      </c>
+        <v>549605437</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -420,13 +412,9 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2776672683</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>poverty trap</t>
-        </is>
-      </c>
+        <v>2778452349</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -435,13 +423,9 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2778452349</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>rural poverty</t>
-        </is>
-      </c>
+        <v>2775868463</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -450,13 +434,9 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149923435</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>demography</t>
-        </is>
-      </c>
+        <v>2780015235</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -465,13 +445,9 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83854009</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>environmental design</t>
-        </is>
-      </c>
+        <v>2777735972</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -480,13 +456,9 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>179454799</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ethnography</t>
-        </is>
-      </c>
+        <v>198394728</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -495,13 +467,9 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2549261</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ethnology</t>
-        </is>
-      </c>
+        <v>149923435</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -510,13 +478,9 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15708023</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>humanities</t>
-        </is>
-      </c>
+        <v>2549261</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -525,13 +489,9 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2917558</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ligne</t>
-        </is>
-      </c>
+        <v>179454799</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -540,13 +500,9 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2780015235</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>microsimulation</t>
-        </is>
-      </c>
+        <v>2917558</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -555,13 +511,9 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2777735972</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>platoon</t>
-        </is>
-      </c>
+        <v>15708023</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -570,13 +522,9 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>198394728</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>vibration</t>
-        </is>
-      </c>
+        <v>83854009</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -587,11 +535,7 @@
       <c r="B15" t="n">
         <v>25022447</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>coupled model intercomparison project</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -600,13 +544,9 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39077098</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>biosurvey</t>
-        </is>
-      </c>
+        <v>197248824</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -617,11 +557,7 @@
       <c r="B17" t="n">
         <v>88160329</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>estuary</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -630,13 +566,9 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2777590139</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>live food</t>
-        </is>
-      </c>
+        <v>39077098</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -645,13 +577,9 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68874143</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>mangrove</t>
-        </is>
-      </c>
+        <v>2777590139</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -660,13 +588,9 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>197248824</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>seawater</t>
-        </is>
-      </c>
+        <v>152382732</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -675,13 +599,9 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>152382732</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>shore</t>
-        </is>
-      </c>
+        <v>68874143</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -692,11 +612,7 @@
       <c r="B22" t="n">
         <v>130217890</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>biodiversity</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -707,11 +623,7 @@
       <c r="B23" t="n">
         <v>185933670</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>habitat</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -722,11 +634,7 @@
       <c r="B24" t="n">
         <v>2779485152</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>convention on biological diversity</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -737,11 +645,7 @@
       <c r="B25" t="n">
         <v>91770344</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>overgrazing</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -750,13 +654,9 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2780554537</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>audiometry</t>
-        </is>
-      </c>
+        <v>2781040256</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -765,13 +665,9 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>121608353</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>cancer</t>
-        </is>
-      </c>
+        <v>83100098</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -780,13 +676,9 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111684460</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>complement system</t>
-        </is>
-      </c>
+        <v>71924100</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -795,13 +687,9 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>123688308</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>correction attenuation</t>
-        </is>
-      </c>
+        <v>166936260</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -810,13 +698,9 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145417883</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>diffuse optical imaging</t>
-        </is>
-      </c>
+        <v>2781145028</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -825,13 +709,9 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2779134260</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>disease</t>
-        </is>
-      </c>
+        <v>159110408</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -840,13 +720,9 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2910860471</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>every three months</t>
-        </is>
-      </c>
+        <v>82789193</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -855,13 +731,9 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2777365067</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>high intensity focused ultrasound</t>
-        </is>
-      </c>
+        <v>112098571</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -870,13 +742,9 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2780263730</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>horizontal transmission</t>
-        </is>
-      </c>
+        <v>2777365067</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -887,11 +755,7 @@
       <c r="B35" t="n">
         <v>203014093</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>immunology</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -900,13 +764,9 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>177713679</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>intensive care medicine</t>
-        </is>
-      </c>
+        <v>199529486</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -915,13 +775,9 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71924100</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>medicine</t>
-        </is>
-      </c>
+        <v>177713679</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -930,13 +786,9 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>67649825</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>microscope</t>
-        </is>
-      </c>
+        <v>2776471321</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -945,13 +797,9 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>147080431</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>microscopy</t>
-        </is>
-      </c>
+        <v>145417883</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -960,13 +808,9 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>83100098</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>ns2 3 protease</t>
-        </is>
-      </c>
+        <v>2777413408</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -975,13 +819,9 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>159110408</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>nursing</t>
-        </is>
-      </c>
+        <v>121608353</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -990,13 +830,9 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2777413408</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>optical tomography</t>
-        </is>
-      </c>
+        <v>67649825</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1005,13 +841,9 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>142724271</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>pathology</t>
-        </is>
-      </c>
+        <v>141071460</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1020,13 +852,9 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2776471321</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>peptide library</t>
-        </is>
-      </c>
+        <v>159047783</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1035,13 +863,9 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98274493</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>pharmacology</t>
-        </is>
-      </c>
+        <v>205545832</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1050,13 +874,9 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1862650</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>physical therapy</t>
-        </is>
-      </c>
+        <v>2780554537</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1065,13 +885,9 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>126838900</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>radiology</t>
-        </is>
-      </c>
+        <v>111684460</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1080,13 +896,9 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>82789193</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>relative risk</t>
-        </is>
-      </c>
+        <v>142724271</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1095,13 +907,9 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2781040256</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>retinal degeneration</t>
-        </is>
-      </c>
+        <v>147080431</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1110,13 +918,9 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>199529486</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>solid lipid nanoparticle</t>
-        </is>
-      </c>
+        <v>2780263730</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1125,13 +929,9 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>166936260</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>super resolution microscopy</t>
-        </is>
-      </c>
+        <v>2779134260</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1140,13 +940,9 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>112098571</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>superluminescent diode</t>
-        </is>
-      </c>
+        <v>126838900</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1155,13 +951,9 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>141071460</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>surgery</t>
-        </is>
-      </c>
+        <v>123688308</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1170,13 +962,9 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2781145028</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>tobacco industry</t>
-        </is>
-      </c>
+        <v>2910860471</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1185,13 +973,9 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>159047783</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>virology</t>
-        </is>
-      </c>
+        <v>1862650</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1200,13 +984,9 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>205545832</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>young adult</t>
-        </is>
-      </c>
+        <v>98274493</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1215,13 +995,9 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>507981020</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>agricultural education</t>
-        </is>
-      </c>
+        <v>2780732545</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1230,13 +1006,9 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>134290984</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>cognitive skill</t>
-        </is>
-      </c>
+        <v>8077954</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1245,13 +1017,9 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>197676734</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>developmentally appropriate practice</t>
-        </is>
-      </c>
+        <v>2779063172</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1260,13 +1028,9 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2779063172</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>family child care</t>
-        </is>
-      </c>
+        <v>134290984</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1277,11 +1041,7 @@
       <c r="B61" t="n">
         <v>154482161</v>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>mainstreaming</t>
-        </is>
-      </c>
+      <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1290,13 +1050,9 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>8077954</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>miscue analysis</t>
-        </is>
-      </c>
+        <v>2777603413</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1305,13 +1061,9 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>542530943</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>multiculturalism</t>
-        </is>
-      </c>
+        <v>165364887</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1320,13 +1072,9 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2777603413</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>phonics</t>
-        </is>
-      </c>
+        <v>507981020</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1335,13 +1083,9 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2780732545</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>response to intervention</t>
-        </is>
-      </c>
+        <v>197676734</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1350,13 +1094,9 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>165364887</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>whole language</t>
-        </is>
-      </c>
+        <v>542530943</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1367,11 +1107,7 @@
       <c r="B67" t="n">
         <v>2776430950</v>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>ancillary relief</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1382,11 +1118,7 @@
       <c r="B68" t="n">
         <v>2775850206</v>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>conflict tactics scale</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1395,13 +1127,9 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>188287460</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>chemical oxygen demand</t>
-        </is>
-      </c>
+        <v>15098985</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1412,11 +1140,7 @@
       <c r="B70" t="n">
         <v>78302586</v>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>modflow</t>
-        </is>
-      </c>
+      <c r="C70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1425,13 +1149,9 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>15098985</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>permafrost</t>
-        </is>
-      </c>
+        <v>188287460</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1440,13 +1160,9 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>86714428</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>atmospheric methane</t>
-        </is>
-      </c>
+        <v>126172416</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1455,13 +1171,9 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>37415627</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>capacity factor</t>
-        </is>
-      </c>
+        <v>2779895041</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1470,13 +1182,9 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>37965861</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>carbon credit</t>
-        </is>
-      </c>
+        <v>113740612</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1485,13 +1193,9 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2780936489</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>carbon footprint</t>
-        </is>
-      </c>
+        <v>2780331013</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1500,13 +1204,9 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2780331013</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>carbon lock in</t>
-        </is>
-      </c>
+        <v>2778330180</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1515,13 +1215,9 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>126172416</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>carbon neutrality</t>
-        </is>
-      </c>
+        <v>509746633</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1530,13 +1226,9 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>83227832</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>carbon offset</t>
-        </is>
-      </c>
+        <v>37415627</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1545,13 +1237,9 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2779200991</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>carbon price</t>
-        </is>
-      </c>
+        <v>188818383</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1560,13 +1248,9 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2779877863</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>carbon project</t>
-        </is>
-      </c>
+        <v>2778675665</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1575,13 +1259,9 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>509746633</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>climate change mitigation</t>
-        </is>
-      </c>
+        <v>2776058518</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1590,13 +1270,9 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2777586272</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>copenhagen accord</t>
-        </is>
-      </c>
+        <v>2779200991</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1605,13 +1281,9 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>188818383</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>fugitive emissions</t>
-        </is>
-      </c>
+        <v>2777586272</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1620,13 +1292,9 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>137851953</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>greenhouse effect</t>
-        </is>
-      </c>
+        <v>2776740001</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1635,13 +1303,9 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2776782565</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>greenhouse gas accounting</t>
-        </is>
-      </c>
+        <v>2778539042</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1650,13 +1314,9 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2778675665</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>islanding</t>
-        </is>
-      </c>
+        <v>37965861</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1665,13 +1325,9 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2779895041</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>land footprint</t>
-        </is>
-      </c>
+        <v>2776782565</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1680,13 +1336,9 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>113740612</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>natural gas field</t>
-        </is>
-      </c>
+        <v>2779877863</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1695,13 +1347,9 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2781249646</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>parabolic trough</t>
-        </is>
-      </c>
+        <v>2780936489</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1710,13 +1358,9 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2778330180</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>pitch control</t>
-        </is>
-      </c>
+        <v>2781249646</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1725,13 +1369,9 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2776740001</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>project independence</t>
-        </is>
-      </c>
+        <v>137851953</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1740,13 +1380,9 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2776058518</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>solar still</t>
-        </is>
-      </c>
+        <v>83227832</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1755,13 +1391,9 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2778539042</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>united nations framework convention on climate change</t>
-        </is>
-      </c>
+        <v>86714428</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1772,11 +1404,7 @@
       <c r="B94" t="n">
         <v>2778556080</v>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>green growth</t>
-        </is>
-      </c>
+      <c r="C94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1787,11 +1415,7 @@
       <c r="B95" t="n">
         <v>2779783368</v>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>marriage market</t>
-        </is>
-      </c>
+      <c r="C95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/raw_data/2_remove/RemovedFOS.xlsx
+++ b/raw_data/2_remove/RemovedFOS.xlsx
@@ -390,9 +390,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2776672683</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>549605437</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Food security</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -401,9 +405,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>549605437</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>2775868463</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Poverty threshold</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -412,9 +420,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2778452349</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>2776672683</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Poverty trap</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -423,9 +435,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2775868463</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>2778452349</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rural poverty</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -434,9 +450,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2780015235</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>149923435</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Demography</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -445,9 +465,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2777735972</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>83854009</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Environmental design</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -456,9 +480,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198394728</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>179454799</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ethnography</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -467,9 +495,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>149923435</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>2549261</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ethnology</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -478,9 +510,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2549261</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>15708023</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Humanities</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -489,9 +525,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179454799</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>2917558</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ligne</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -500,9 +540,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2917558</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>2780015235</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Microsimulation</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -511,9 +555,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15708023</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>2777735972</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Platoon</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -522,9 +570,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83854009</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>198394728</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Vibration</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -535,7 +587,11 @@
       <c r="B15" t="n">
         <v>25022447</v>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Coupled model intercomparison project</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -544,9 +600,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>197248824</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>39077098</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Biosurvey</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -557,7 +617,11 @@
       <c r="B17" t="n">
         <v>88160329</v>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Estuary</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -566,9 +630,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39077098</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>2777590139</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Live food</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -577,9 +645,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2777590139</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>68874143</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mangrove</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -588,9 +660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>152382732</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>197248824</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Seawater</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -599,9 +675,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68874143</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>152382732</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Shore</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -612,7 +692,11 @@
       <c r="B22" t="n">
         <v>130217890</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Biodiversity</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -623,7 +707,11 @@
       <c r="B23" t="n">
         <v>185933670</v>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -634,7 +722,11 @@
       <c r="B24" t="n">
         <v>2779485152</v>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Convention on Biological Diversity</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -645,7 +737,11 @@
       <c r="B25" t="n">
         <v>91770344</v>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Overgrazing</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -654,9 +750,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2781040256</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>2780554537</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Audiometry</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -665,9 +765,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>83100098</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>121608353</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Cancer</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -676,9 +780,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71924100</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>111684460</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Complement system</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -687,9 +795,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>166936260</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>123688308</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Correction for attenuation</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -698,9 +810,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2781145028</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+        <v>145417883</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Diffuse optical imaging</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -709,9 +825,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>159110408</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
+        <v>2779134260</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Disease</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -720,9 +840,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82789193</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
+        <v>2910860471</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Every Three Months</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -731,9 +855,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>112098571</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
+        <v>2777365067</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>High-intensity focused ultrasound</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -742,9 +870,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2777365067</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
+        <v>2780263730</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Horizontal transmission</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -755,7 +887,11 @@
       <c r="B35" t="n">
         <v>203014093</v>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Immunology</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -764,9 +900,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>199529486</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+        <v>177713679</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Intensive care medicine</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -775,9 +915,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177713679</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
+        <v>71924100</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -786,9 +930,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2776471321</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
+        <v>67649825</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Microscope</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -797,9 +945,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>145417883</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+        <v>147080431</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Microscopy</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -808,9 +960,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2777413408</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>83100098</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NS2-3 protease</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -819,9 +975,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>121608353</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
+        <v>159110408</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Nursing</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -830,9 +990,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>67649825</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
+        <v>2777413408</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Optical tomography</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -841,9 +1005,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>141071460</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
+        <v>142724271</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Pathology</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -852,9 +1020,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>159047783</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
+        <v>2776471321</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Peptide library</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -863,9 +1035,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>205545832</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>98274493</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Pharmacology</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -874,9 +1050,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2780554537</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
+        <v>1862650</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Physical therapy</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -885,9 +1065,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>111684460</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
+        <v>126838900</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Radiology</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -896,9 +1080,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>142724271</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>82789193</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Relative risk</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -907,9 +1095,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>147080431</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
+        <v>2781040256</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Retinal degeneration</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -918,9 +1110,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2780263730</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
+        <v>199529486</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Solid lipid nanoparticle</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -929,9 +1125,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2779134260</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
+        <v>166936260</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Super-resolution microscopy</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -940,9 +1140,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>126838900</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
+        <v>112098571</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Superluminescent diode</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -951,9 +1155,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>123688308</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
+        <v>141071460</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Surgery</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -962,9 +1170,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2910860471</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
+        <v>2781145028</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Tobacco industry</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -973,9 +1185,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1862650</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
+        <v>159047783</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Virology</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -984,9 +1200,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>98274493</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
+        <v>205545832</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Young adult</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -995,9 +1215,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2780732545</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>507981020</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Agricultural education</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1006,9 +1230,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8077954</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
+        <v>134290984</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Cognitive skill</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1017,9 +1245,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2779063172</v>
-      </c>
-      <c r="C59" t="inlineStr"/>
+        <v>197676734</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Developmentally Appropriate Practice</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1028,9 +1260,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>134290984</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
+        <v>2779063172</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Family child care</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1041,7 +1277,11 @@
       <c r="B61" t="n">
         <v>154482161</v>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Mainstreaming</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1050,9 +1290,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2777603413</v>
-      </c>
-      <c r="C62" t="inlineStr"/>
+        <v>8077954</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Miscue analysis</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1061,9 +1305,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>165364887</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
+        <v>542530943</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Multiculturalism</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1072,9 +1320,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>507981020</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
+        <v>2777603413</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Phonics</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1083,9 +1335,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>197676734</v>
-      </c>
-      <c r="C65" t="inlineStr"/>
+        <v>2780732545</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Response to intervention</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1094,9 +1350,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>542530943</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
+        <v>165364887</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Whole language</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1107,7 +1367,11 @@
       <c r="B67" t="n">
         <v>2776430950</v>
       </c>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ancillary relief</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1118,7 +1382,11 @@
       <c r="B68" t="n">
         <v>2775850206</v>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Conflict tactics scale</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1127,9 +1395,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>15098985</v>
-      </c>
-      <c r="C69" t="inlineStr"/>
+        <v>188287460</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Chemical oxygen demand</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1140,7 +1412,11 @@
       <c r="B70" t="n">
         <v>78302586</v>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MODFLOW</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1149,9 +1425,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>188287460</v>
-      </c>
-      <c r="C71" t="inlineStr"/>
+        <v>15098985</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Permafrost</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1160,9 +1440,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>126172416</v>
-      </c>
-      <c r="C72" t="inlineStr"/>
+        <v>86714428</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Atmospheric methane</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1171,9 +1455,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2779895041</v>
-      </c>
-      <c r="C73" t="inlineStr"/>
+        <v>37415627</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Capacity factor</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1182,9 +1470,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>113740612</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
+        <v>37965861</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Carbon credit</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1193,9 +1485,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2780331013</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
+        <v>2780936489</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Carbon footprint</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1204,9 +1500,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2778330180</v>
-      </c>
-      <c r="C76" t="inlineStr"/>
+        <v>2780331013</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Carbon lock-in</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1215,9 +1515,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>509746633</v>
-      </c>
-      <c r="C77" t="inlineStr"/>
+        <v>126172416</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Carbon neutrality</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1226,9 +1530,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>37415627</v>
-      </c>
-      <c r="C78" t="inlineStr"/>
+        <v>83227832</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Carbon offset</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1237,9 +1545,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>188818383</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
+        <v>2779200991</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Carbon price</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1248,9 +1560,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2778675665</v>
-      </c>
-      <c r="C80" t="inlineStr"/>
+        <v>2779877863</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Carbon project</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1259,9 +1575,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2776058518</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
+        <v>509746633</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Climate change mitigation</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1270,9 +1590,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2779200991</v>
-      </c>
-      <c r="C82" t="inlineStr"/>
+        <v>2777586272</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Copenhagen Accord</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1281,9 +1605,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2777586272</v>
-      </c>
-      <c r="C83" t="inlineStr"/>
+        <v>188818383</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Fugitive emissions</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1292,9 +1620,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2776740001</v>
-      </c>
-      <c r="C84" t="inlineStr"/>
+        <v>137851953</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Greenhouse effect</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1303,9 +1635,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2778539042</v>
-      </c>
-      <c r="C85" t="inlineStr"/>
+        <v>2776782565</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Greenhouse gas accounting</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1314,9 +1650,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>37965861</v>
-      </c>
-      <c r="C86" t="inlineStr"/>
+        <v>2778675665</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Islanding</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1325,9 +1665,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2776782565</v>
-      </c>
-      <c r="C87" t="inlineStr"/>
+        <v>2779895041</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Land footprint</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1336,9 +1680,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2779877863</v>
-      </c>
-      <c r="C88" t="inlineStr"/>
+        <v>113740612</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Natural gas field</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1347,9 +1695,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2780936489</v>
-      </c>
-      <c r="C89" t="inlineStr"/>
+        <v>2781249646</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Parabolic trough</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1358,9 +1710,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2781249646</v>
-      </c>
-      <c r="C90" t="inlineStr"/>
+        <v>2778330180</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Pitch control</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1369,9 +1725,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>137851953</v>
-      </c>
-      <c r="C91" t="inlineStr"/>
+        <v>2776740001</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Project Independence</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1380,9 +1740,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>83227832</v>
-      </c>
-      <c r="C92" t="inlineStr"/>
+        <v>2776058518</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Solar still</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1391,9 +1755,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>86714428</v>
-      </c>
-      <c r="C93" t="inlineStr"/>
+        <v>2778539042</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>United Nations Framework Convention on Climate Change</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1404,7 +1772,11 @@
       <c r="B94" t="n">
         <v>2778556080</v>
       </c>
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Green growth</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1415,7 +1787,11 @@
       <c r="B95" t="n">
         <v>2779783368</v>
       </c>
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Marriage market</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/raw_data/2_remove/RemovedFOS.xlsx
+++ b/raw_data/2_remove/RemovedFOS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,8 +389,10 @@
           <t>SDG_1</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>549605437</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>549605437</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -404,8 +406,10 @@
           <t>SDG_1</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2775868463</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2775868463</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -419,8 +423,10 @@
           <t>SDG_1</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2776672683</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2776672683</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -434,8 +440,10 @@
           <t>SDG_1</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>2778452349</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2778452349</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -449,8 +457,10 @@
           <t>SDG_11</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>149923435</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>149923435</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -464,8 +474,10 @@
           <t>SDG_11</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>83854009</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>83854009</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -479,8 +491,10 @@
           <t>SDG_11</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>179454799</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>179454799</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -494,8 +508,10 @@
           <t>SDG_11</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2549261</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2549261</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -509,8 +525,10 @@
           <t>SDG_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>15708023</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15708023</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -524,8 +542,10 @@
           <t>SDG_11</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2917558</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2917558</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -539,8 +559,10 @@
           <t>SDG_11</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2780015235</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2780015235</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -554,8 +576,10 @@
           <t>SDG_11</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2777735972</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2777735972</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -569,8 +593,10 @@
           <t>SDG_11</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>198394728</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>198394728</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -584,8 +610,10 @@
           <t>SDG_13</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>25022447</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25022447</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -599,8 +627,10 @@
           <t>SDG_14</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>39077098</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>39077098</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -614,8 +644,10 @@
           <t>SDG_14</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>88160329</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>88160329</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -629,8 +661,10 @@
           <t>SDG_14</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2777590139</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2777590139</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -644,8 +678,10 @@
           <t>SDG_14</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>68874143</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>68874143</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -659,8 +695,10 @@
           <t>SDG_14</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>197248824</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>197248824</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -674,8 +712,10 @@
           <t>SDG_14</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>152382732</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>152382732</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -689,8 +729,10 @@
           <t>SDG_15</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>130217890</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>130217890</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -704,8 +746,10 @@
           <t>SDG_15</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>185933670</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>185933670</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -719,8 +763,10 @@
           <t>SDG_2</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>2779485152</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2779485152</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -734,8 +780,10 @@
           <t>SDG_2</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>91770344</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>91770344</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -746,60 +794,68 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SDG_3</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2780554537</v>
+          <t>SDG_2</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>120217122</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Audiometry</t>
+          <t>Precision agriculture</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SDG_3</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>121608353</v>
+          <t>SDG_2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>109162521</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cancer</t>
+          <t>Soil conservation</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SDG_3</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>111684460</v>
+          <t>SDG_2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2779422593</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Complement system</t>
+          <t>Soil crust</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SDG_3</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>123688308</v>
+          <t>SDG_2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>85675897</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Correction for attenuation</t>
+          <t>Soil management</t>
         </is>
       </c>
     </row>
@@ -809,12 +865,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>145417883</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2780554537</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Diffuse optical imaging</t>
+          <t>Audiometry</t>
         </is>
       </c>
     </row>
@@ -824,12 +882,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2779134260</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>121608353</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Disease</t>
+          <t>Cancer</t>
         </is>
       </c>
     </row>
@@ -839,12 +899,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>2910860471</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>111684460</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Every Three Months</t>
+          <t>Complement system</t>
         </is>
       </c>
     </row>
@@ -854,12 +916,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>2777365067</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>123688308</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>High-intensity focused ultrasound</t>
+          <t>Correction for attenuation</t>
         </is>
       </c>
     </row>
@@ -869,12 +933,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>2780263730</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>145417883</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Horizontal transmission</t>
+          <t>Diffuse optical imaging</t>
         </is>
       </c>
     </row>
@@ -884,12 +950,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>203014093</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2779134260</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Immunology</t>
+          <t>Disease</t>
         </is>
       </c>
     </row>
@@ -899,12 +967,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>177713679</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2910860471</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Intensive care medicine</t>
+          <t>Every Three Months</t>
         </is>
       </c>
     </row>
@@ -914,12 +984,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>71924100</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2777365067</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Medicine</t>
+          <t>High-intensity focused ultrasound</t>
         </is>
       </c>
     </row>
@@ -929,12 +1001,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>67649825</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2780263730</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Microscope</t>
+          <t>Horizontal transmission</t>
         </is>
       </c>
     </row>
@@ -944,12 +1018,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>147080431</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>203014093</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Microscopy</t>
+          <t>Immunology</t>
         </is>
       </c>
     </row>
@@ -959,12 +1035,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>83100098</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>177713679</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NS2-3 protease</t>
+          <t>Intensive care medicine</t>
         </is>
       </c>
     </row>
@@ -974,12 +1052,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>159110408</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>71924100</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nursing</t>
+          <t>Medicine</t>
         </is>
       </c>
     </row>
@@ -989,12 +1069,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>2777413408</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>67649825</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Optical tomography</t>
+          <t>Microscope</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1086,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>142724271</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>147080431</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pathology</t>
+          <t>Microscopy</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1103,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>2776471321</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>83100098</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Peptide library</t>
+          <t>NS2-3 protease</t>
         </is>
       </c>
     </row>
@@ -1034,12 +1120,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>98274493</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159110408</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pharmacology</t>
+          <t>Nursing</t>
         </is>
       </c>
     </row>
@@ -1049,12 +1137,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>1862650</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2777413408</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Physical therapy</t>
+          <t>Optical tomography</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1154,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>126838900</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>142724271</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Radiology</t>
+          <t>Pathology</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1171,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>82789193</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2776471321</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Relative risk</t>
+          <t>Peptide library</t>
         </is>
       </c>
     </row>
@@ -1094,12 +1188,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>2781040256</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>98274493</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Retinal degeneration</t>
+          <t>Pharmacology</t>
         </is>
       </c>
     </row>
@@ -1109,12 +1205,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>199529486</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1862650</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Solid lipid nanoparticle</t>
+          <t>Physical therapy</t>
         </is>
       </c>
     </row>
@@ -1124,12 +1222,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>166936260</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>126838900</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Super-resolution microscopy</t>
+          <t>Radiology</t>
         </is>
       </c>
     </row>
@@ -1139,12 +1239,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>112098571</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>82789193</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Superluminescent diode</t>
+          <t>Relative risk</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1256,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>141071460</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2781040256</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Surgery</t>
+          <t>Retinal degeneration</t>
         </is>
       </c>
     </row>
@@ -1169,12 +1273,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>2781145028</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>199529486</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Tobacco industry</t>
+          <t>Solid lipid nanoparticle</t>
         </is>
       </c>
     </row>
@@ -1184,12 +1290,14 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>159047783</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>166936260</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Virology</t>
+          <t>Super-resolution microscopy</t>
         </is>
       </c>
     </row>
@@ -1199,72 +1307,82 @@
           <t>SDG_3</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>205545832</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>112098571</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Young adult</t>
+          <t>Superluminescent diode</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SDG_4</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>507981020</v>
+          <t>SDG_3</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>141071460</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Agricultural education</t>
+          <t>Surgery</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SDG_4</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>134290984</v>
+          <t>SDG_3</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2781145028</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cognitive skill</t>
+          <t>Tobacco industry</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SDG_4</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>197676734</v>
+          <t>SDG_3</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159047783</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Developmentally Appropriate Practice</t>
+          <t>Virology</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SDG_4</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2779063172</v>
+          <t>SDG_3</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>205545832</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Family child care</t>
+          <t>Young adult</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1392,14 @@
           <t>SDG_4</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>154482161</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>507981020</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mainstreaming</t>
+          <t>Agricultural education</t>
         </is>
       </c>
     </row>
@@ -1289,12 +1409,14 @@
           <t>SDG_4</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>8077954</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>134290984</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Miscue analysis</t>
+          <t>Cognitive skill</t>
         </is>
       </c>
     </row>
@@ -1304,12 +1426,14 @@
           <t>SDG_4</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>542530943</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>197676734</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Multiculturalism</t>
+          <t>Developmentally Appropriate Practice</t>
         </is>
       </c>
     </row>
@@ -1319,12 +1443,14 @@
           <t>SDG_4</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>2777603413</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2779063172</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Phonics</t>
+          <t>Family child care</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1460,14 @@
           <t>SDG_4</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>2780732545</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>154482161</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Response to intervention</t>
+          <t>Mainstreaming</t>
         </is>
       </c>
     </row>
@@ -1349,147 +1477,167 @@
           <t>SDG_4</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>165364887</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>8077954</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Whole language</t>
+          <t>Miscue analysis</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SDG_5</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>2776430950</v>
+          <t>SDG_4</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>542530943</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ancillary relief</t>
+          <t>Multiculturalism</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SDG_5</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2775850206</v>
+          <t>SDG_4</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2777603413</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Conflict tactics scale</t>
+          <t>Phonics</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SDG_6</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>188287460</v>
+          <t>SDG_4</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2780732545</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Chemical oxygen demand</t>
+          <t>Response to intervention</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SDG_6</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>78302586</v>
+          <t>SDG_4</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>165364887</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MODFLOW</t>
+          <t>Whole language</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SDG_6</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>15098985</v>
+          <t>SDG_5</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2776430950</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Permafrost</t>
+          <t>Ancillary relief</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SDG_7</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>86714428</v>
+          <t>SDG_5</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2775850206</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Atmospheric methane</t>
+          <t>Conflict tactics scale</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SDG_7</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>37415627</v>
+          <t>SDG_6</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>188287460</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Capacity factor</t>
+          <t>Chemical oxygen demand</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SDG_7</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>37965861</v>
+          <t>SDG_6</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>78302586</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Carbon credit</t>
+          <t>MODFLOW</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SDG_7</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>2780936489</v>
+          <t>SDG_6</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>15098985</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Carbon footprint</t>
+          <t>Permafrost</t>
         </is>
       </c>
     </row>
@@ -1499,12 +1647,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>2780331013</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>86714428</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Carbon lock-in</t>
+          <t>Atmospheric methane</t>
         </is>
       </c>
     </row>
@@ -1514,12 +1664,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>126172416</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>37415627</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Carbon neutrality</t>
+          <t>Capacity factor</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1681,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>83227832</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>37965861</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Carbon offset</t>
+          <t>Carbon credit</t>
         </is>
       </c>
     </row>
@@ -1544,12 +1698,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>2779200991</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2780936489</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Carbon price</t>
+          <t>Carbon footprint</t>
         </is>
       </c>
     </row>
@@ -1559,12 +1715,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>2779877863</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2780331013</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Carbon project</t>
+          <t>Carbon lock-in</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1732,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B81" t="n">
-        <v>509746633</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>126172416</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Climate change mitigation</t>
+          <t>Carbon neutrality</t>
         </is>
       </c>
     </row>
@@ -1589,12 +1749,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B82" t="n">
-        <v>2777586272</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>83227832</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Copenhagen Accord</t>
+          <t>Carbon offset</t>
         </is>
       </c>
     </row>
@@ -1604,12 +1766,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B83" t="n">
-        <v>188818383</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2779200991</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fugitive emissions</t>
+          <t>Carbon price</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1783,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B84" t="n">
-        <v>137851953</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2779877863</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Greenhouse effect</t>
+          <t>Carbon project</t>
         </is>
       </c>
     </row>
@@ -1634,12 +1800,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B85" t="n">
-        <v>2776782565</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>509746633</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Greenhouse gas accounting</t>
+          <t>Climate change mitigation</t>
         </is>
       </c>
     </row>
@@ -1649,12 +1817,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B86" t="n">
-        <v>2778675665</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2777586272</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Islanding</t>
+          <t>Copenhagen Accord</t>
         </is>
       </c>
     </row>
@@ -1664,12 +1834,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B87" t="n">
-        <v>2779895041</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>188818383</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Land footprint</t>
+          <t>Fugitive emissions</t>
         </is>
       </c>
     </row>
@@ -1679,12 +1851,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B88" t="n">
-        <v>113740612</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>137851953</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Natural gas field</t>
+          <t>Greenhouse effect</t>
         </is>
       </c>
     </row>
@@ -1694,12 +1868,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>2781249646</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2776782565</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Parabolic trough</t>
+          <t>Greenhouse gas accounting</t>
         </is>
       </c>
     </row>
@@ -1709,12 +1885,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B90" t="n">
-        <v>2778330180</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2778675665</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Pitch control</t>
+          <t>Islanding</t>
         </is>
       </c>
     </row>
@@ -1724,12 +1902,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B91" t="n">
-        <v>2776740001</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2779895041</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Project Independence</t>
+          <t>Land footprint</t>
         </is>
       </c>
     </row>
@@ -1739,12 +1919,14 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B92" t="n">
-        <v>2776058518</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>113740612</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Solar still</t>
+          <t>Natural gas field</t>
         </is>
       </c>
     </row>
@@ -1754,40 +1936,114 @@
           <t>SDG_7</t>
         </is>
       </c>
-      <c r="B93" t="n">
-        <v>2778539042</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2781249646</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>United Nations Framework Convention on Climate Change</t>
+          <t>Parabolic trough</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SDG_8</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>2778556080</v>
+          <t>SDG_7</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2778330180</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Green growth</t>
+          <t>Pitch control</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>SDG_7</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2776740001</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Project Independence</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SDG_7</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2776058518</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Solar still</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SDG_7</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2778539042</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>United Nations Framework Convention on Climate Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
           <t>SDG_8</t>
         </is>
       </c>
-      <c r="B95" t="n">
-        <v>2779783368</v>
-      </c>
-      <c r="C95" t="inlineStr">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2778556080</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Green growth</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SDG_8</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2779783368</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>Marriage market</t>
         </is>

--- a/raw_data/2_remove/RemovedFOS.xlsx
+++ b/raw_data/2_remove/RemovedFOS.xlsx
@@ -10519,7 +10519,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2908999294</t>
+          <t>2908520703</t>
         </is>
       </c>
       <c r="C598" t="inlineStr"/>
@@ -10532,7 +10532,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2908520703</t>
+          <t>2908832293</t>
         </is>
       </c>
       <c r="C599" t="inlineStr"/>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2908832293</t>
+          <t>2908999294</t>
         </is>
       </c>
       <c r="C600" t="inlineStr"/>

--- a/raw_data/2_remove/RemovedFOS.xlsx
+++ b/raw_data/2_remove/RemovedFOS.xlsx
@@ -2116,13 +2116,13 @@
     <t>2909753820</t>
   </si>
   <si>
+    <t>2908999294</t>
+  </si>
+  <si>
+    <t>2908832293</t>
+  </si>
+  <si>
     <t>2908520703</t>
-  </si>
-  <si>
-    <t>2908999294</t>
-  </si>
-  <si>
-    <t>2908832293</t>
   </si>
   <si>
     <t>128717455</t>

--- a/raw_data/2_remove/RemovedFOS.xlsx
+++ b/raw_data/2_remove/RemovedFOS.xlsx
@@ -2119,10 +2119,10 @@
     <t>2908999294</t>
   </si>
   <si>
+    <t>2908520703</t>
+  </si>
+  <si>
     <t>2908832293</t>
-  </si>
-  <si>
-    <t>2908520703</t>
   </si>
   <si>
     <t>128717455</t>

--- a/raw_data/2_remove/RemovedFOS.xlsx
+++ b/raw_data/2_remove/RemovedFOS.xlsx
@@ -2116,10 +2116,10 @@
     <t>2909753820</t>
   </si>
   <si>
+    <t>2908520703</t>
+  </si>
+  <si>
     <t>2908999294</t>
-  </si>
-  <si>
-    <t>2908520703</t>
   </si>
   <si>
     <t>2908832293</t>

--- a/raw_data/2_remove/RemovedFOS.xlsx
+++ b/raw_data/2_remove/RemovedFOS.xlsx
@@ -2116,10 +2116,10 @@
     <t>2909753820</t>
   </si>
   <si>
+    <t>2908999294</t>
+  </si>
+  <si>
     <t>2908520703</t>
-  </si>
-  <si>
-    <t>2908999294</t>
   </si>
   <si>
     <t>2908832293</t>

--- a/raw_data/2_remove/RemovedFOS.xlsx
+++ b/raw_data/2_remove/RemovedFOS.xlsx
@@ -2119,10 +2119,10 @@
     <t>2908520703</t>
   </si>
   <si>
+    <t>2908832293</t>
+  </si>
+  <si>
     <t>2908999294</t>
-  </si>
-  <si>
-    <t>2908832293</t>
   </si>
   <si>
     <t>128717455</t>
